--- a/routes/Data/MJTdata_subjectlist1.xlsx
+++ b/routes/Data/MJTdata_subjectlist1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12195"/>
+    <workbookView minimized="1" xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
